--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\colegio_sj\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\colegio_sp\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>Administracion</t>
+  </si>
+  <si>
+    <t>Asignar Secciones</t>
+  </si>
+  <si>
+    <t>AsignacionIndex</t>
+  </si>
+  <si>
+    <t>asignacion_index</t>
+  </si>
+  <si>
+    <t>Asignar Alumnos</t>
+  </si>
+  <si>
+    <t>asignacion</t>
+  </si>
+  <si>
+    <t>Asignacion</t>
   </si>
 </sst>
 </file>
@@ -316,11 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,6 +1330,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\colegio_sp\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\colegio_sj\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -281,19 +281,28 @@
     <t>Asignar Secciones</t>
   </si>
   <si>
-    <t>AsignacionIndex</t>
-  </si>
-  <si>
-    <t>asignacion_index</t>
-  </si>
-  <si>
     <t>Asignar Alumnos</t>
   </si>
   <si>
-    <t>asignacion</t>
-  </si>
-  <si>
-    <t>Asignacion</t>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>asignacion_seccion_index</t>
+  </si>
+  <si>
+    <t>asignacion_seccion_alumno</t>
+  </si>
+  <si>
+    <t>AsignacionSeccionAlumno</t>
+  </si>
+  <si>
+    <t>AsignacionSeccionIndex</t>
   </si>
 </sst>
 </file>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,10 +1344,10 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -1358,13 +1367,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -1380,6 +1389,29 @@
       </c>
       <c r="H30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -632,14 +632,14 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>

--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -131,12 +131,6 @@
     <t>Historial Academico</t>
   </si>
   <si>
-    <t>historial_academico</t>
-  </si>
-  <si>
-    <t>HistorialAcademico</t>
-  </si>
-  <si>
     <t>Inscripciones</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>AsignacionSeccionIndex</t>
+  </si>
+  <si>
+    <t>historial_pagos</t>
+  </si>
+  <si>
+    <t>HistorialPagos</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
         <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -971,10 +971,10 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -1014,19 +1014,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
       </c>
       <c r="D20">
         <v>17</v>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
       </c>
       <c r="D24">
         <v>21</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -1341,13 +1341,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
         <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
       </c>
       <c r="D31">
         <v>1</v>

--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -303,6 +303,24 @@
   </si>
   <si>
     <t>HistorialPagos</t>
+  </si>
+  <si>
+    <t>Asignar profesores</t>
+  </si>
+  <si>
+    <t>asignar_profesores</t>
+  </si>
+  <si>
+    <t>AsignarProfesores</t>
+  </si>
+  <si>
+    <t>historial_academico</t>
+  </si>
+  <si>
+    <t>HistorialAcademico</t>
+  </si>
+  <si>
+    <t>Historial Pagos</t>
   </si>
 </sst>
 </file>
@@ -629,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +662,7 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -667,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -690,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -713,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -736,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -759,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -782,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -802,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -825,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -848,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -868,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -894,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -920,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -943,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -966,9 +984,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -988,8 +1006,14 @@
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1412,6 +1436,61 @@
       </c>
       <c r="G31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/Menu.xlsx
+++ b/database/seeds/Menu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t>#</t>
   </si>
@@ -321,6 +321,129 @@
   </si>
   <si>
     <t>Historial Pagos</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>notas_index</t>
+  </si>
+  <si>
+    <t>NotasIndex</t>
+  </si>
+  <si>
+    <t>AsignacionIndex</t>
+  </si>
+  <si>
+    <t>asignacion_index</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>ViewAsignacion</t>
+  </si>
+  <si>
+    <t>view_asignacion</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>ViewAlumnos</t>
+  </si>
+  <si>
+    <t>view_alumnos</t>
+  </si>
+  <si>
+    <t>AsignarNota</t>
+  </si>
+  <si>
+    <t>CursosIndex</t>
+  </si>
+  <si>
+    <t>cursos_index</t>
+  </si>
+  <si>
+    <t>MaterialApoyo</t>
+  </si>
+  <si>
+    <t>materiales_index</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>asignacion_nota</t>
+  </si>
+  <si>
+    <t>Alumnos Morosos</t>
+  </si>
+  <si>
+    <t>Asignacion Alumno</t>
+  </si>
+  <si>
+    <t>asignacion_alumno</t>
+  </si>
+  <si>
+    <t>AsignacionAlumno</t>
+  </si>
+  <si>
+    <t>entrega_asignacion</t>
+  </si>
+  <si>
+    <t>Entrega Asignacion</t>
+  </si>
+  <si>
+    <t>EntregaAsignacion</t>
+  </si>
+  <si>
+    <t>Cuestionario</t>
+  </si>
+  <si>
+    <t>cuestionario</t>
+  </si>
+  <si>
+    <t>View Cuestionario</t>
+  </si>
+  <si>
+    <t>view_cuestionario</t>
+  </si>
+  <si>
+    <t>ViewCuestionario</t>
+  </si>
+  <si>
+    <t>CursoAlumnoIndex</t>
+  </si>
+  <si>
+    <t>cursos_alumnos_index</t>
+  </si>
+  <si>
+    <t>info_cursos_alumnos</t>
+  </si>
+  <si>
+    <t>InfoCursoAlumno</t>
+  </si>
+  <si>
+    <t>Nota Alumno</t>
+  </si>
+  <si>
+    <t>nota_alumno</t>
+  </si>
+  <si>
+    <t>NotaAlumno</t>
+  </si>
+  <si>
+    <t>Notas Index</t>
   </si>
 </sst>
 </file>
@@ -647,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1390,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1490,6 +1613,447 @@
         <v>6</v>
       </c>
       <c r="M33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
         <v>7</v>
       </c>
     </row>
